--- a/График сдачи.xlsx
+++ b/График сдачи.xlsx
@@ -476,9 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -493,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -797,7 +797,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="O2" sqref="O2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,26 +812,26 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
       <c r="T1" s="13"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -955,8 +955,8 @@
       <c r="M4" s="18">
         <v>42457</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
@@ -1002,10 +1002,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>1</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="22">
         <v>2</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="23"/>
-      <c r="I6" s="43">
+      <c r="I6" s="42">
         <v>1</v>
       </c>
       <c r="J6" s="23"/>
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="23"/>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <v>3</v>
       </c>
       <c r="N6" s="20"/>
@@ -1043,19 +1043,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <v>2</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="22">
+      <c r="G7" s="43">
         <v>3</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="I7" s="22">
+      <c r="I7" s="43">
         <v>4</v>
       </c>
       <c r="J7" s="22"/>
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" s="2"/>
       <c r="V7" s="2"/>
@@ -1084,11 +1084,11 @@
         <v>9</v>
       </c>
       <c r="B8" s="24"/>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <v>1</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="22">
+      <c r="E8" s="43">
         <v>2</v>
       </c>
       <c r="F8" s="22"/>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="2"/>
       <c r="V8" s="2"/>
@@ -1117,15 +1117,17 @@
         <v>11</v>
       </c>
       <c r="B9" s="24"/>
-      <c r="C9" s="22">
+      <c r="C9" s="43">
         <v>1</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="22">
+      <c r="E9" s="43">
         <v>2</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="43">
+        <v>3</v>
+      </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -1135,10 +1137,10 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="2"/>
       <c r="V9" s="2"/>
@@ -1180,12 +1182,12 @@
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>1</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="27">
+      <c r="G11" s="44">
         <v>2</v>
       </c>
       <c r="H11" s="27"/>
@@ -1195,14 +1197,14 @@
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
-      <c r="M11" s="35"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20">
         <v>3</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -1226,11 +1228,11 @@
       <c r="O12" s="15"/>
       <c r="P12" s="28">
         <f>SUM(P6:P11)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="29">
         <f>SUM(Q6:Q11)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -1257,27 +1259,27 @@
       </c>
       <c r="Q13" s="29">
         <f>P12-Q12</f>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
@@ -1429,20 +1431,20 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36">
+      <c r="B19" s="39"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35">
         <v>1</v>
       </c>
-      <c r="M19" s="37"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="7"/>
@@ -1458,20 +1460,20 @@
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38">
+      <c r="B20" s="40"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37">
         <v>1</v>
       </c>
-      <c r="M20" s="39"/>
+      <c r="M20" s="38"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="7"/>

--- a/График сдачи.xlsx
+++ b/График сдачи.xlsx
@@ -99,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +112,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -444,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,6 +499,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -797,7 +806,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O13"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,11 +1015,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="32"/>
-      <c r="E6" s="22">
+      <c r="E6" s="43">
         <v>2</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="G6" s="22">
+      <c r="G6" s="48">
         <v>3</v>
       </c>
       <c r="H6" s="23"/>
@@ -1018,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="23"/>
-      <c r="K6" s="23">
+      <c r="K6" s="47">
         <v>2</v>
       </c>
       <c r="L6" s="23"/>
@@ -1031,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6" s="2"/>
       <c r="V6" s="2"/>
@@ -1069,10 +1078,10 @@
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R7" s="2"/>
       <c r="V7" s="2"/>
@@ -1092,9 +1101,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="43">
+        <v>3</v>
+      </c>
       <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="43">
+        <v>4</v>
+      </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -1102,10 +1115,10 @@
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R8" s="2"/>
       <c r="V8" s="2"/>
@@ -1192,7 +1205,7 @@
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="27">
+      <c r="J11" s="46">
         <v>3</v>
       </c>
       <c r="K11" s="27"/>
@@ -1228,11 +1241,11 @@
       <c r="O12" s="15"/>
       <c r="P12" s="28">
         <f>SUM(P6:P11)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="29">
         <f>SUM(Q6:Q11)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -1259,7 +1272,7 @@
       </c>
       <c r="Q13" s="29">
         <f>P12-Q12</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
